--- a/resource excel/PENYUSUTAN.xlsx
+++ b/resource excel/PENYUSUTAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BMT\Lap. Keuangan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AFDC09-8E7A-4BDA-8C6D-A33FA7EFB741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05D4060-604C-43F0-AA19-A9E5CB7783E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9760" windowHeight="9810" firstSheet="1" activeTab="1" xr2:uid="{A736F3EF-7B85-4827-8A8E-FC26CD1779B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{A736F3EF-7B85-4827-8A8E-FC26CD1779B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Daftar Asset" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Kelompok 1</t>
   </si>
@@ -232,9 +230,6 @@
     <t>Rumus Beban Penyusutan Aktiva =</t>
   </si>
   <si>
-    <t>Nilai Residu =</t>
-  </si>
-  <si>
     <t>Umur Ekonomis</t>
   </si>
   <si>
@@ -253,37 +248,38 @@
     <t>Nilai Buku</t>
   </si>
   <si>
-    <t>-Kas</t>
-  </si>
-  <si>
-    <t>(Harga Perolehan - Nilai Residu)</t>
-  </si>
-  <si>
-    <t>Harga Perolehan</t>
-  </si>
-  <si>
-    <t>Nilai residu per tahun</t>
-  </si>
-  <si>
-    <t>Penyusutan per tahun</t>
-  </si>
-  <si>
-    <t>Penyusutan per bulan</t>
-  </si>
-  <si>
     <t>Laptop dibeli tanggal 1 Januari 2020 harga Rp. 10.0000.000, masa pemakaian 4 tahun</t>
   </si>
   <si>
-    <t>Inventaris</t>
+    <t>(Harga Perolehan - (Harga Perolehan/Umur Ekonomis)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Nilai di akhir masa manfaat :</t>
+  </si>
+  <si>
+    <t>Nilai Penyusutan per bulan :</t>
+  </si>
+  <si>
+    <t>Nilai Penyusutan per tahun :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_([$IDR]\ * #,##0_);_([$IDR]\ * \(#,##0\);_([$IDR]\ * &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -318,13 +314,25 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -461,8 +469,100 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -472,117 +572,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -598,7 +588,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -608,14 +598,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -630,7 +652,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -645,7 +667,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -660,7 +682,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -670,7 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -697,47 +719,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -767,12 +772,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,7 +866,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1094,14 +1168,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1197,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -1143,7 +1217,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
@@ -1163,7 +1237,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
         <v>7</v>
@@ -1183,7 +1257,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -1203,7 +1277,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
         <v>13</v>
@@ -1223,7 +1297,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -1243,7 +1317,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>14</v>
@@ -1263,7 +1337,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
@@ -1283,7 +1357,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>16</v>
@@ -1303,7 +1377,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>17</v>
@@ -1323,7 +1397,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
@@ -1343,7 +1417,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
@@ -1363,7 +1437,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1381,7 +1455,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -1389,107 +1463,107 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>2</v>
       </c>
@@ -1497,57 +1571,57 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1555,12 +1629,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>51</v>
       </c>
@@ -1572,38 +1646,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBB88A2-F1C6-4CAA-A529-5261DFFD7D51}">
-  <dimension ref="B2:O49"/>
+  <dimension ref="A2:R53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="7.08984375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="2.1796875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="20" style="10" customWidth="1"/>
-    <col min="10" max="10" width="0.81640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="10"/>
-    <col min="12" max="12" width="5.6328125" style="10" customWidth="1"/>
-    <col min="13" max="14" width="8.7265625" style="10"/>
-    <col min="15" max="15" width="2.7265625" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="2.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="66" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="18" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="1.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="7.28515625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="45" t="s">
+    <row r="2" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
       <c r="G3" s="11"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1612,58 +1688,65 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-    </row>
-    <row r="4" spans="2:15" s="18" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="33" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="2:18" s="18" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="40" t="s">
+      <c r="D4" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="21"/>
-    </row>
-    <row r="5" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="I4" s="49"/>
+      <c r="J4" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="21"/>
+    </row>
+    <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="21"/>
-    </row>
-    <row r="6" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="29" t="s">
+      <c r="J5" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="21"/>
+    </row>
+    <row r="6" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="69">
         <v>0.25</v>
       </c>
       <c r="G6" s="16"/>
@@ -1674,428 +1757,693 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="70">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="F7" s="67"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="71">
         <v>6.25E-2</v>
       </c>
+      <c r="F8" s="67"/>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="26" t="s">
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="72">
         <v>0.05</v>
       </c>
-      <c r="G9" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="43" t="s">
+      <c r="F9" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="53">
+        <f>(J9-(L9/O9))/J10</f>
+        <v>37500000</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="51">
+        <v>400000000</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="47">
+        <f>J9</f>
+        <v>400000000</v>
+      </c>
+      <c r="M9" s="47"/>
+      <c r="N9" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="54"/>
-    </row>
-    <row r="10" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="51" t="s">
+      <c r="O9" s="48">
+        <v>4</v>
+      </c>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="21"/>
+    </row>
+    <row r="10" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="F10" s="67" t="s">
+        <v>77</v>
+      </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="55"/>
-    </row>
-    <row r="11" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="29" t="s">
+      <c r="H10" s="54">
+        <f>H9/12</f>
+        <v>3125000</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="52">
+        <v>8</v>
+      </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="69">
         <v>0.05</v>
       </c>
+      <c r="F11" s="67" t="s">
+        <v>76</v>
+      </c>
       <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="55">
+        <f>L9-(H9*J10)</f>
+        <v>100000000</v>
+      </c>
       <c r="I11" s="17"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="26" t="s">
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="72">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="41" t="s">
+      <c r="F12" s="67"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="14" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="2:18" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="D15" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="E15" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="36"/>
+      <c r="F15" s="68"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="61"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="39">
-        <f>H20</f>
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="36">
+      <c r="E16" s="62">
+        <f>J9</f>
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="61">
         <v>1</v>
       </c>
-      <c r="C17" s="39">
-        <f>H24</f>
-        <v>1875000</v>
-      </c>
-      <c r="D17" s="39">
+      <c r="C17" s="33">
+        <f>H9</f>
+        <v>37500000</v>
+      </c>
+      <c r="D17" s="33">
         <f>C17</f>
-        <v>1875000</v>
-      </c>
-      <c r="E17" s="39">
-        <f t="shared" ref="E17:E20" si="0">E16-C17</f>
-        <v>8125000</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="36">
+        <v>37500000</v>
+      </c>
+      <c r="E17" s="62">
+        <f>E16-C17</f>
+        <v>362500000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="61">
         <v>2</v>
       </c>
-      <c r="C18" s="39">
-        <f>H24</f>
-        <v>1875000</v>
-      </c>
-      <c r="D18" s="39">
-        <f t="shared" ref="D18:D20" si="1">D17+C18</f>
-        <v>3750000</v>
-      </c>
-      <c r="E18" s="39">
+      <c r="C18" s="33">
+        <f>C17</f>
+        <v>37500000</v>
+      </c>
+      <c r="D18" s="33">
+        <f>D17+C18</f>
+        <v>75000000</v>
+      </c>
+      <c r="E18" s="62">
+        <f t="shared" ref="E18:E20" si="0">E17-C18</f>
+        <v>325000000</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="61">
+        <v>3</v>
+      </c>
+      <c r="C19" s="33">
+        <f>C18</f>
+        <v>37500000</v>
+      </c>
+      <c r="D19" s="33">
+        <f>D18+C19</f>
+        <v>112500000</v>
+      </c>
+      <c r="E19" s="62">
         <f t="shared" si="0"/>
-        <v>6250000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="36">
-        <v>3</v>
-      </c>
-      <c r="C19" s="39">
-        <f>H24</f>
-        <v>1875000</v>
-      </c>
-      <c r="D19" s="39">
+        <v>287500000</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="63">
+        <v>4</v>
+      </c>
+      <c r="C20" s="64">
+        <f>C19</f>
+        <v>37500000</v>
+      </c>
+      <c r="D20" s="64">
+        <f>D19+C20</f>
+        <v>150000000</v>
+      </c>
+      <c r="E20" s="65">
+        <f t="shared" si="0"/>
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="19"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="73">
+        <v>5</v>
+      </c>
+      <c r="C22" s="74">
+        <f>C20</f>
+        <v>37500000</v>
+      </c>
+      <c r="D22" s="74">
+        <f>D20+C22</f>
+        <v>187500000</v>
+      </c>
+      <c r="E22" s="75">
+        <f>E20-C22</f>
+        <v>212500000</v>
+      </c>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="61">
+        <v>6</v>
+      </c>
+      <c r="C23" s="33">
+        <f t="shared" ref="C23:C39" si="1">C22</f>
+        <v>37500000</v>
+      </c>
+      <c r="D23" s="33">
+        <f t="shared" ref="D23:D39" si="2">D22+C23</f>
+        <v>225000000</v>
+      </c>
+      <c r="E23" s="62">
+        <f t="shared" ref="E23:E39" si="3">E22-C23</f>
+        <v>175000000</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="61">
+        <v>7</v>
+      </c>
+      <c r="C24" s="33">
         <f t="shared" si="1"/>
-        <v>5625000</v>
-      </c>
-      <c r="E19" s="39">
-        <f t="shared" si="0"/>
-        <v>4375000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="36">
-        <v>4</v>
-      </c>
-      <c r="C20" s="39">
-        <f>H24</f>
-        <v>1875000</v>
-      </c>
-      <c r="D20" s="39">
+        <v>37500000</v>
+      </c>
+      <c r="D24" s="33">
+        <f t="shared" si="2"/>
+        <v>262500000</v>
+      </c>
+      <c r="E24" s="62">
+        <f t="shared" si="3"/>
+        <v>137500000</v>
+      </c>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="63">
+        <v>8</v>
+      </c>
+      <c r="C25" s="64">
         <f t="shared" si="1"/>
-        <v>7500000</v>
-      </c>
-      <c r="E20" s="39">
-        <f t="shared" si="0"/>
-        <v>2500000</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="37">
-        <v>10000000</v>
-      </c>
-      <c r="I20" s="37"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="36"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="G21" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37">
-        <f>H20</f>
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="36"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="36"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="G23" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="37">
-        <f>H20/4</f>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="36"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="G24" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="37">
-        <f>(10000000-H23)/4</f>
-        <v>1875000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="36"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="37">
-        <f>H24/12</f>
-        <v>156250</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="36"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="39">
-        <f>H44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="36">
-        <v>1</v>
-      </c>
-      <c r="C41" s="39">
-        <f>H24</f>
-        <v>1875000</v>
-      </c>
-      <c r="D41" s="39">
-        <f>C41</f>
-        <v>1875000</v>
-      </c>
-      <c r="E41" s="39">
-        <f>E40-D41</f>
-        <v>-1875000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="36">
-        <v>2</v>
-      </c>
-      <c r="C42" s="39">
-        <f>H24</f>
-        <v>1875000</v>
-      </c>
-      <c r="D42" s="39">
-        <f t="shared" ref="D42:D48" si="2">D41+C42</f>
-        <v>3750000</v>
-      </c>
-      <c r="E42" s="39">
-        <f t="shared" ref="E42:E48" si="3">E41-D42</f>
-        <v>-5625000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" s="36">
-        <v>3</v>
-      </c>
-      <c r="C43" s="39">
-        <f>H24</f>
-        <v>1875000</v>
-      </c>
-      <c r="D43" s="39">
+        <v>37500000</v>
+      </c>
+      <c r="D25" s="64">
         <f t="shared" si="2"/>
-        <v>5625000</v>
-      </c>
-      <c r="E43" s="39">
+        <v>300000000</v>
+      </c>
+      <c r="E25" s="65">
         <f t="shared" si="3"/>
-        <v>-11250000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" s="36">
-        <v>4</v>
-      </c>
-      <c r="C44" s="39">
-        <f>H24</f>
-        <v>1875000</v>
-      </c>
-      <c r="D44" s="39">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="19"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="73">
+        <v>9</v>
+      </c>
+      <c r="C27" s="74">
+        <f>C25</f>
+        <v>37500000</v>
+      </c>
+      <c r="D27" s="74">
+        <f>D25+C27</f>
+        <v>337500000</v>
+      </c>
+      <c r="E27" s="75">
+        <f>E25-C27</f>
+        <v>62500000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="61">
+        <v>10</v>
+      </c>
+      <c r="C28" s="33">
+        <f t="shared" si="1"/>
+        <v>37500000</v>
+      </c>
+      <c r="D28" s="33">
         <f t="shared" si="2"/>
-        <v>7500000</v>
-      </c>
-      <c r="E44" s="39">
+        <v>375000000</v>
+      </c>
+      <c r="E28" s="62">
         <f t="shared" si="3"/>
-        <v>-18750000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="36">
-        <v>5</v>
-      </c>
-      <c r="C45" s="39">
-        <f>H24</f>
-        <v>1875000</v>
-      </c>
-      <c r="D45" s="39">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="61">
+        <v>11</v>
+      </c>
+      <c r="C29" s="33">
+        <f t="shared" si="1"/>
+        <v>37500000</v>
+      </c>
+      <c r="D29" s="33">
         <f t="shared" si="2"/>
-        <v>9375000</v>
-      </c>
-      <c r="E45" s="39">
+        <v>412500000</v>
+      </c>
+      <c r="E29" s="62">
         <f t="shared" si="3"/>
-        <v>-28125000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="36">
-        <v>6</v>
-      </c>
-      <c r="C46" s="39">
-        <f>H24</f>
-        <v>1875000</v>
-      </c>
-      <c r="D46" s="39">
+        <v>-12500000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="61">
+        <v>12</v>
+      </c>
+      <c r="C30" s="33">
+        <f t="shared" si="1"/>
+        <v>37500000</v>
+      </c>
+      <c r="D30" s="33">
         <f t="shared" si="2"/>
-        <v>11250000</v>
-      </c>
-      <c r="E46" s="39">
+        <v>450000000</v>
+      </c>
+      <c r="E30" s="62">
         <f t="shared" si="3"/>
-        <v>-39375000</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="36">
-        <v>7</v>
-      </c>
-      <c r="C47" s="39">
-        <f>H24</f>
-        <v>1875000</v>
-      </c>
-      <c r="D47" s="39">
+        <v>-50000000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="61">
+        <v>13</v>
+      </c>
+      <c r="C31" s="33">
+        <f t="shared" si="1"/>
+        <v>37500000</v>
+      </c>
+      <c r="D31" s="33">
         <f t="shared" si="2"/>
-        <v>13125000</v>
-      </c>
-      <c r="E47" s="39">
+        <v>487500000</v>
+      </c>
+      <c r="E31" s="62">
         <f t="shared" si="3"/>
-        <v>-52500000</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="36">
-        <v>8</v>
-      </c>
-      <c r="C48" s="39">
-        <f>H24</f>
-        <v>1875000</v>
-      </c>
-      <c r="D48" s="39">
+        <v>-87500000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="61">
+        <v>14</v>
+      </c>
+      <c r="C32" s="33">
+        <f t="shared" si="1"/>
+        <v>37500000</v>
+      </c>
+      <c r="D32" s="33">
         <f t="shared" si="2"/>
-        <v>15000000</v>
-      </c>
-      <c r="E48" s="39">
+        <v>525000000</v>
+      </c>
+      <c r="E32" s="62">
         <f t="shared" si="3"/>
-        <v>-67500000</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="36"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
+        <v>-125000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="61">
+        <v>15</v>
+      </c>
+      <c r="C33" s="33">
+        <f t="shared" si="1"/>
+        <v>37500000</v>
+      </c>
+      <c r="D33" s="33">
+        <f t="shared" si="2"/>
+        <v>562500000</v>
+      </c>
+      <c r="E33" s="62">
+        <f t="shared" si="3"/>
+        <v>-162500000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="63">
+        <v>16</v>
+      </c>
+      <c r="C34" s="64">
+        <f t="shared" si="1"/>
+        <v>37500000</v>
+      </c>
+      <c r="D34" s="64">
+        <f t="shared" si="2"/>
+        <v>600000000</v>
+      </c>
+      <c r="E34" s="65">
+        <f t="shared" si="3"/>
+        <v>-200000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="19"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="73">
+        <v>17</v>
+      </c>
+      <c r="C36" s="74">
+        <f>C34</f>
+        <v>37500000</v>
+      </c>
+      <c r="D36" s="74">
+        <f>D34+C36</f>
+        <v>637500000</v>
+      </c>
+      <c r="E36" s="75">
+        <f>E34-C36</f>
+        <v>-237500000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="61">
+        <v>18</v>
+      </c>
+      <c r="C37" s="33">
+        <f t="shared" si="1"/>
+        <v>37500000</v>
+      </c>
+      <c r="D37" s="33">
+        <f t="shared" si="2"/>
+        <v>675000000</v>
+      </c>
+      <c r="E37" s="62">
+        <f t="shared" si="3"/>
+        <v>-275000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="61">
+        <v>19</v>
+      </c>
+      <c r="C38" s="33">
+        <f t="shared" si="1"/>
+        <v>37500000</v>
+      </c>
+      <c r="D38" s="33">
+        <f t="shared" si="2"/>
+        <v>712500000</v>
+      </c>
+      <c r="E38" s="62">
+        <f t="shared" si="3"/>
+        <v>-312500000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="63">
+        <v>20</v>
+      </c>
+      <c r="C39" s="64">
+        <f t="shared" si="1"/>
+        <v>37500000</v>
+      </c>
+      <c r="D39" s="64">
+        <f t="shared" si="2"/>
+        <v>750000000</v>
+      </c>
+      <c r="E39" s="65">
+        <f t="shared" si="3"/>
+        <v>-350000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="67"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="67"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="67"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="67"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="67"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="67"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="67"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="67"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="67"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="67"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="67"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
+  <mergeCells count="9">
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="O9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>